--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/2,4-D/2023/2,4-D_Absolute ED_Multiple Comparisons/Data Sheet_2,4-D_GC.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/2,4-D/2023/2,4-D_Absolute ED_Multiple Comparisons/Data Sheet_2,4-D_GC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/2,4-D/2023/2,4-D_Absolute ED - Copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/2,4-D/2023/2,4-D_Absolute ED_Multiple Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="914" documentId="13_ncr:1_{DCBFFDB1-6533-4D82-AAE7-984FEA5D15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B142C4-D3CC-44D5-B5FB-3871CB3C3B88}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="13_ncr:1_{DCBFFDB1-6533-4D82-AAE7-984FEA5D15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12606427-DC27-4AB1-978E-62653790F8AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>elevated</t>
-  </si>
-  <si>
     <t>ambient</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>treat</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -218,6 +218,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -580,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -601,7 +605,7 @@
       </c>
       <c r="F2" s="3" t="str">
         <f>_xlfn.CONCAT(D2,"+",E2,"+",I2)</f>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
@@ -610,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -643,7 +647,7 @@
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(D3,"+",E3,"+",I3)</f>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
@@ -652,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
@@ -685,7 +689,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
@@ -694,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
@@ -727,7 +731,7 @@
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
@@ -736,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>4</v>
@@ -769,7 +773,7 @@
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>20</v>
@@ -778,7 +782,7 @@
         <v>16.64</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -811,7 +815,7 @@
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
@@ -820,7 +824,7 @@
         <v>16.64</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3">
         <v>2</v>
@@ -853,7 +857,7 @@
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>20</v>
@@ -862,7 +866,7 @@
         <v>16.64</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -895,7 +899,7 @@
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
@@ -904,7 +908,7 @@
         <v>16.64</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3">
         <v>4</v>
@@ -937,7 +941,7 @@
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>21</v>
@@ -946,7 +950,7 @@
         <v>33.28</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -979,7 +983,7 @@
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>21</v>
@@ -988,7 +992,7 @@
         <v>33.28</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3">
         <v>2</v>
@@ -1021,7 +1025,7 @@
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>21</v>
@@ -1030,7 +1034,7 @@
         <v>33.28</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -1063,7 +1067,7 @@
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>21</v>
@@ -1072,7 +1076,7 @@
         <v>33.28</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -1105,7 +1109,7 @@
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>22</v>
@@ -1114,7 +1118,7 @@
         <v>66.56</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -1147,7 +1151,7 @@
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>22</v>
@@ -1156,7 +1160,7 @@
         <v>66.56</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
         <v>2</v>
@@ -1189,7 +1193,7 @@
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>22</v>
@@ -1198,7 +1202,7 @@
         <v>66.56</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
@@ -1231,7 +1235,7 @@
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>22</v>
@@ -1240,7 +1244,7 @@
         <v>66.56</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -1273,7 +1277,7 @@
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>10</v>
@@ -1282,7 +1286,7 @@
         <v>133.12</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
@@ -1315,7 +1319,7 @@
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>10</v>
@@ -1324,7 +1328,7 @@
         <v>133.12</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3">
         <v>2</v>
@@ -1357,7 +1361,7 @@
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>10</v>
@@ -1366,7 +1370,7 @@
         <v>133.12</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3">
         <v>3</v>
@@ -1399,7 +1403,7 @@
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
@@ -1408,7 +1412,7 @@
         <v>133.12</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3">
         <v>4</v>
@@ -1441,7 +1445,7 @@
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>11</v>
@@ -1450,7 +1454,7 @@
         <v>266.23</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
@@ -1483,7 +1487,7 @@
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>11</v>
@@ -1492,7 +1496,7 @@
         <v>266.23</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3">
         <v>2</v>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>11</v>
@@ -1534,7 +1538,7 @@
         <v>266.23</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3">
         <v>3</v>
@@ -1567,7 +1571,7 @@
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>11</v>
@@ -1576,7 +1580,7 @@
         <v>266.23</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3">
         <v>4</v>
@@ -1609,7 +1613,7 @@
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1618,7 +1622,7 @@
         <v>532.47</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
@@ -1651,7 +1655,7 @@
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
@@ -1660,7 +1664,7 @@
         <v>532.47</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J27" s="3">
         <v>2</v>
@@ -1693,7 +1697,7 @@
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>12</v>
@@ -1702,7 +1706,7 @@
         <v>532.47</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J28" s="3">
         <v>3</v>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
@@ -1744,7 +1748,7 @@
         <v>532.47</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3">
         <v>4</v>
@@ -1777,7 +1781,7 @@
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>13</v>
@@ -1786,7 +1790,7 @@
         <v>1064.94</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -1819,7 +1823,7 @@
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>13</v>
@@ -1828,7 +1832,7 @@
         <v>1064.94</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3">
         <v>2</v>
@@ -1861,7 +1865,7 @@
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>13</v>
@@ -1870,7 +1874,7 @@
         <v>1064.94</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J32" s="3">
         <v>3</v>
@@ -1903,7 +1907,7 @@
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -1912,7 +1916,7 @@
         <v>1064.94</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
         <v>4</v>
@@ -1945,7 +1949,7 @@
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>14</v>
@@ -1954,7 +1958,7 @@
         <v>2129.88</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
@@ -1981,7 +1985,7 @@
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>14</v>
@@ -1990,7 +1994,7 @@
         <v>2129.88</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J35" s="3">
         <v>2</v>
@@ -2017,7 +2021,7 @@
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>14</v>
@@ -2026,7 +2030,7 @@
         <v>2129.88</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J36" s="3">
         <v>3</v>
@@ -2053,7 +2057,7 @@
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>14</v>
@@ -2062,7 +2066,7 @@
         <v>2129.88</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J37" s="3">
         <v>4</v>
@@ -2089,7 +2093,7 @@
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>15</v>
@@ -2098,7 +2102,7 @@
         <v>4259.75</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
@@ -2131,7 +2135,7 @@
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>15</v>
@@ -2140,7 +2144,7 @@
         <v>4259.75</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3">
         <v>2</v>
@@ -2173,7 +2177,7 @@
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>15</v>
@@ -2182,7 +2186,7 @@
         <v>4259.75</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J40" s="3">
         <v>3</v>
@@ -2215,7 +2219,7 @@
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>15</v>
@@ -2224,7 +2228,7 @@
         <v>4259.75</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J41" s="3">
         <v>4</v>
@@ -2266,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
@@ -2308,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J43" s="3">
         <v>2</v>
@@ -2350,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J44" s="3">
         <v>3</v>
@@ -2392,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" s="3">
         <v>4</v>
@@ -2434,7 +2438,7 @@
         <v>16.64</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
@@ -2476,7 +2480,7 @@
         <v>16.64</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J47" s="3">
         <v>2</v>
@@ -2518,7 +2522,7 @@
         <v>16.64</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="3">
         <v>3</v>
@@ -2560,7 +2564,7 @@
         <v>16.64</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49" s="3">
         <v>4</v>
@@ -2602,7 +2606,7 @@
         <v>33.28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -2644,7 +2648,7 @@
         <v>33.28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" s="3">
         <v>2</v>
@@ -2686,7 +2690,7 @@
         <v>33.28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3">
         <v>3</v>
@@ -2728,7 +2732,7 @@
         <v>33.28</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J53" s="3">
         <v>4</v>
@@ -2770,7 +2774,7 @@
         <v>66.56</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -2812,7 +2816,7 @@
         <v>66.56</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J55" s="3">
         <v>2</v>
@@ -2854,7 +2858,7 @@
         <v>66.56</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J56" s="3">
         <v>3</v>
@@ -2896,7 +2900,7 @@
         <v>66.56</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J57" s="3">
         <v>4</v>
@@ -2938,7 +2942,7 @@
         <v>133.12</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -2980,7 +2984,7 @@
         <v>133.12</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J59" s="3">
         <v>2</v>
@@ -3022,7 +3026,7 @@
         <v>133.12</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J60" s="3">
         <v>3</v>
@@ -3064,7 +3068,7 @@
         <v>133.12</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J61" s="3">
         <v>4</v>
@@ -3106,7 +3110,7 @@
         <v>266.23</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
@@ -3148,7 +3152,7 @@
         <v>266.23</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J63" s="3">
         <v>2</v>
@@ -3190,7 +3194,7 @@
         <v>266.23</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J64" s="3">
         <v>3</v>
@@ -3232,7 +3236,7 @@
         <v>266.23</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J65" s="3">
         <v>4</v>
@@ -3274,7 +3278,7 @@
         <v>532.47</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -3316,7 +3320,7 @@
         <v>532.47</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J67" s="3">
         <v>2</v>
@@ -3358,7 +3362,7 @@
         <v>532.47</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J68" s="3">
         <v>3</v>
@@ -3400,7 +3404,7 @@
         <v>532.47</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" s="3">
         <v>4</v>
@@ -3442,7 +3446,7 @@
         <v>1064.94</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
@@ -3484,7 +3488,7 @@
         <v>1064.94</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J71" s="3">
         <v>2</v>
@@ -3526,7 +3530,7 @@
         <v>1064.94</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J72" s="3">
         <v>3</v>
@@ -3568,7 +3572,7 @@
         <v>1064.94</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J73" s="3">
         <v>4</v>
@@ -3610,7 +3614,7 @@
         <v>2129.88</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -3652,7 +3656,7 @@
         <v>2129.88</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J75" s="3">
         <v>2</v>
@@ -3694,7 +3698,7 @@
         <v>2129.88</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J76" s="3">
         <v>3</v>
@@ -3736,7 +3740,7 @@
         <v>2129.88</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J77" s="3">
         <v>4</v>
@@ -3778,7 +3782,7 @@
         <v>4259.75</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J78" s="3">
         <v>1</v>
@@ -3820,7 +3824,7 @@
         <v>4259.75</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J79" s="3">
         <v>2</v>
@@ -3862,7 +3866,7 @@
         <v>4259.75</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J80" s="3">
         <v>3</v>
@@ -3904,7 +3908,7 @@
         <v>4259.75</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J81" s="3">
         <v>4</v>
@@ -3937,7 +3941,7 @@
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>9</v>
@@ -3946,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J82" s="3">
         <v>1</v>
@@ -3979,7 +3983,7 @@
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>9</v>
@@ -3988,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J83" s="3">
         <v>2</v>
@@ -4021,7 +4025,7 @@
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>9</v>
@@ -4030,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J84" s="3">
         <v>3</v>
@@ -4063,7 +4067,7 @@
       </c>
       <c r="F85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>9</v>
@@ -4072,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J85" s="3">
         <v>4</v>
@@ -4105,7 +4109,7 @@
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>20</v>
@@ -4114,7 +4118,7 @@
         <v>16.64</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J86" s="3">
         <v>1</v>
@@ -4147,7 +4151,7 @@
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>20</v>
@@ -4156,7 +4160,7 @@
         <v>16.64</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J87" s="3">
         <v>2</v>
@@ -4189,7 +4193,7 @@
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>20</v>
@@ -4198,7 +4202,7 @@
         <v>16.64</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J88" s="3">
         <v>3</v>
@@ -4231,7 +4235,7 @@
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>20</v>
@@ -4240,7 +4244,7 @@
         <v>16.64</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J89" s="3">
         <v>4</v>
@@ -4273,7 +4277,7 @@
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>21</v>
@@ -4282,7 +4286,7 @@
         <v>33.28</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
@@ -4315,7 +4319,7 @@
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>21</v>
@@ -4324,7 +4328,7 @@
         <v>33.28</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J91" s="3">
         <v>2</v>
@@ -4357,7 +4361,7 @@
       </c>
       <c r="F92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>21</v>
@@ -4366,7 +4370,7 @@
         <v>33.28</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J92" s="3">
         <v>3</v>
@@ -4399,7 +4403,7 @@
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>21</v>
@@ -4408,7 +4412,7 @@
         <v>33.28</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J93" s="3">
         <v>4</v>
@@ -4441,7 +4445,7 @@
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>22</v>
@@ -4450,7 +4454,7 @@
         <v>66.56</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J94" s="3">
         <v>1</v>
@@ -4483,7 +4487,7 @@
       </c>
       <c r="F95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>22</v>
@@ -4492,7 +4496,7 @@
         <v>66.56</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J95" s="3">
         <v>2</v>
@@ -4525,7 +4529,7 @@
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>22</v>
@@ -4534,7 +4538,7 @@
         <v>66.56</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J96" s="3">
         <v>3</v>
@@ -4567,7 +4571,7 @@
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>22</v>
@@ -4576,7 +4580,7 @@
         <v>66.56</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J97" s="3">
         <v>4</v>
@@ -4609,7 +4613,7 @@
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>10</v>
@@ -4618,7 +4622,7 @@
         <v>133.12</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J98" s="3">
         <v>1</v>
@@ -4651,7 +4655,7 @@
       </c>
       <c r="F99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>10</v>
@@ -4660,7 +4664,7 @@
         <v>133.12</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J99" s="3">
         <v>2</v>
@@ -4693,7 +4697,7 @@
       </c>
       <c r="F100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>10</v>
@@ -4702,7 +4706,7 @@
         <v>133.12</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J100" s="3">
         <v>3</v>
@@ -4735,7 +4739,7 @@
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
@@ -4744,7 +4748,7 @@
         <v>133.12</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J101" s="3">
         <v>4</v>
@@ -4777,7 +4781,7 @@
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>11</v>
@@ -4786,7 +4790,7 @@
         <v>266.23</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J102" s="3">
         <v>1</v>
@@ -4819,7 +4823,7 @@
       </c>
       <c r="F103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>11</v>
@@ -4828,7 +4832,7 @@
         <v>266.23</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
@@ -4861,7 +4865,7 @@
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>11</v>
@@ -4870,7 +4874,7 @@
         <v>266.23</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J104" s="3">
         <v>3</v>
@@ -4903,7 +4907,7 @@
       </c>
       <c r="F105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>11</v>
@@ -4912,7 +4916,7 @@
         <v>266.23</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J105" s="3">
         <v>4</v>
@@ -4945,7 +4949,7 @@
       </c>
       <c r="F106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>12</v>
@@ -4954,7 +4958,7 @@
         <v>532.47</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J106" s="3">
         <v>1</v>
@@ -4987,7 +4991,7 @@
       </c>
       <c r="F107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>12</v>
@@ -4996,7 +5000,7 @@
         <v>532.47</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J107" s="3">
         <v>2</v>
@@ -5029,7 +5033,7 @@
       </c>
       <c r="F108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>12</v>
@@ -5038,7 +5042,7 @@
         <v>532.47</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J108" s="3">
         <v>3</v>
@@ -5071,7 +5075,7 @@
       </c>
       <c r="F109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>12</v>
@@ -5080,7 +5084,7 @@
         <v>532.47</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J109" s="3">
         <v>4</v>
@@ -5113,7 +5117,7 @@
       </c>
       <c r="F110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>13</v>
@@ -5122,7 +5126,7 @@
         <v>1064.94</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J110" s="3">
         <v>1</v>
@@ -5155,7 +5159,7 @@
       </c>
       <c r="F111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>13</v>
@@ -5164,7 +5168,7 @@
         <v>1064.94</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J111" s="3">
         <v>2</v>
@@ -5197,7 +5201,7 @@
       </c>
       <c r="F112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>13</v>
@@ -5206,7 +5210,7 @@
         <v>1064.94</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J112" s="3">
         <v>3</v>
@@ -5239,7 +5243,7 @@
       </c>
       <c r="F113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>13</v>
@@ -5248,7 +5252,7 @@
         <v>1064.94</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J113" s="3">
         <v>4</v>
@@ -5281,7 +5285,7 @@
       </c>
       <c r="F114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>14</v>
@@ -5290,7 +5294,7 @@
         <v>2129.88</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
@@ -5317,7 +5321,7 @@
       </c>
       <c r="F115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>14</v>
@@ -5326,7 +5330,7 @@
         <v>2129.88</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J115" s="3">
         <v>2</v>
@@ -5353,7 +5357,7 @@
       </c>
       <c r="F116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>14</v>
@@ -5362,7 +5366,7 @@
         <v>2129.88</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J116" s="3">
         <v>3</v>
@@ -5389,7 +5393,7 @@
       </c>
       <c r="F117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>14</v>
@@ -5398,7 +5402,7 @@
         <v>2129.88</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J117" s="3">
         <v>4</v>
@@ -5425,7 +5429,7 @@
       </c>
       <c r="F118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>15</v>
@@ -5434,7 +5438,7 @@
         <v>4259.75</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J118" s="3">
         <v>1</v>
@@ -5467,7 +5471,7 @@
       </c>
       <c r="F119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>15</v>
@@ -5476,7 +5480,7 @@
         <v>4259.75</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J119" s="3">
         <v>2</v>
@@ -5509,7 +5513,7 @@
       </c>
       <c r="F120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>15</v>
@@ -5518,7 +5522,7 @@
         <v>4259.75</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J120" s="3">
         <v>3</v>
@@ -5551,7 +5555,7 @@
       </c>
       <c r="F121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>15</v>
@@ -5560,7 +5564,7 @@
         <v>4259.75</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J121" s="3">
         <v>4</v>
@@ -5593,7 +5597,7 @@
       </c>
       <c r="F122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>9</v>
@@ -5602,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
@@ -5635,7 +5639,7 @@
       </c>
       <c r="F123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>9</v>
@@ -5644,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J123" s="3">
         <v>2</v>
@@ -5677,7 +5681,7 @@
       </c>
       <c r="F124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>9</v>
@@ -5686,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J124" s="3">
         <v>3</v>
@@ -5719,7 +5723,7 @@
       </c>
       <c r="F125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>9</v>
@@ -5728,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J125" s="3">
         <v>4</v>
@@ -5761,7 +5765,7 @@
       </c>
       <c r="F126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>20</v>
@@ -5770,7 +5774,7 @@
         <v>16.64</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J126" s="3">
         <v>1</v>
@@ -5803,7 +5807,7 @@
       </c>
       <c r="F127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>20</v>
@@ -5812,7 +5816,7 @@
         <v>16.64</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J127" s="3">
         <v>2</v>
@@ -5845,7 +5849,7 @@
       </c>
       <c r="F128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>20</v>
@@ -5854,7 +5858,7 @@
         <v>16.64</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J128" s="3">
         <v>3</v>
@@ -5887,7 +5891,7 @@
       </c>
       <c r="F129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>20</v>
@@ -5896,7 +5900,7 @@
         <v>16.64</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J129" s="3">
         <v>4</v>
@@ -5929,7 +5933,7 @@
       </c>
       <c r="F130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>21</v>
@@ -5938,7 +5942,7 @@
         <v>33.28</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J130" s="3">
         <v>1</v>
@@ -5971,7 +5975,7 @@
       </c>
       <c r="F131" s="3" t="str">
         <f t="shared" ref="F131:F194" si="2">_xlfn.CONCAT(D131,"+",E131,"+",I131)</f>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>21</v>
@@ -5980,7 +5984,7 @@
         <v>33.28</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J131" s="3">
         <v>2</v>
@@ -6013,7 +6017,7 @@
       </c>
       <c r="F132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>21</v>
@@ -6022,7 +6026,7 @@
         <v>33.28</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J132" s="3">
         <v>3</v>
@@ -6055,7 +6059,7 @@
       </c>
       <c r="F133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>21</v>
@@ -6064,7 +6068,7 @@
         <v>33.28</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J133" s="3">
         <v>4</v>
@@ -6097,7 +6101,7 @@
       </c>
       <c r="F134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>22</v>
@@ -6106,7 +6110,7 @@
         <v>66.56</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J134" s="3">
         <v>1</v>
@@ -6139,7 +6143,7 @@
       </c>
       <c r="F135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>22</v>
@@ -6148,7 +6152,7 @@
         <v>66.56</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J135" s="3">
         <v>2</v>
@@ -6181,7 +6185,7 @@
       </c>
       <c r="F136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>22</v>
@@ -6190,7 +6194,7 @@
         <v>66.56</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J136" s="3">
         <v>3</v>
@@ -6223,7 +6227,7 @@
       </c>
       <c r="F137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>22</v>
@@ -6232,7 +6236,7 @@
         <v>66.56</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J137" s="3">
         <v>4</v>
@@ -6265,7 +6269,7 @@
       </c>
       <c r="F138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>10</v>
@@ -6274,7 +6278,7 @@
         <v>133.12</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J138" s="3">
         <v>1</v>
@@ -6307,7 +6311,7 @@
       </c>
       <c r="F139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>10</v>
@@ -6316,7 +6320,7 @@
         <v>133.12</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J139" s="3">
         <v>2</v>
@@ -6349,7 +6353,7 @@
       </c>
       <c r="F140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>10</v>
@@ -6358,7 +6362,7 @@
         <v>133.12</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J140" s="3">
         <v>3</v>
@@ -6391,7 +6395,7 @@
       </c>
       <c r="F141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>10</v>
@@ -6400,7 +6404,7 @@
         <v>133.12</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J141" s="3">
         <v>4</v>
@@ -6433,7 +6437,7 @@
       </c>
       <c r="F142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>11</v>
@@ -6442,7 +6446,7 @@
         <v>266.23</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J142" s="3">
         <v>1</v>
@@ -6475,7 +6479,7 @@
       </c>
       <c r="F143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>11</v>
@@ -6484,7 +6488,7 @@
         <v>266.23</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J143" s="3">
         <v>2</v>
@@ -6517,7 +6521,7 @@
       </c>
       <c r="F144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>11</v>
@@ -6526,7 +6530,7 @@
         <v>266.23</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J144" s="3">
         <v>3</v>
@@ -6559,7 +6563,7 @@
       </c>
       <c r="F145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>11</v>
@@ -6568,7 +6572,7 @@
         <v>266.23</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J145" s="3">
         <v>4</v>
@@ -6601,7 +6605,7 @@
       </c>
       <c r="F146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>12</v>
@@ -6610,7 +6614,7 @@
         <v>532.47</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J146" s="3">
         <v>1</v>
@@ -6643,7 +6647,7 @@
       </c>
       <c r="F147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>12</v>
@@ -6652,7 +6656,7 @@
         <v>532.47</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J147" s="3">
         <v>2</v>
@@ -6685,7 +6689,7 @@
       </c>
       <c r="F148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>12</v>
@@ -6694,7 +6698,7 @@
         <v>532.47</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J148" s="3">
         <v>3</v>
@@ -6727,7 +6731,7 @@
       </c>
       <c r="F149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>12</v>
@@ -6736,7 +6740,7 @@
         <v>532.47</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J149" s="3">
         <v>4</v>
@@ -6769,7 +6773,7 @@
       </c>
       <c r="F150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>13</v>
@@ -6778,7 +6782,7 @@
         <v>1064.94</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J150" s="3">
         <v>1</v>
@@ -6811,7 +6815,7 @@
       </c>
       <c r="F151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>13</v>
@@ -6820,7 +6824,7 @@
         <v>1064.94</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J151" s="3">
         <v>2</v>
@@ -6853,7 +6857,7 @@
       </c>
       <c r="F152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>13</v>
@@ -6862,7 +6866,7 @@
         <v>1064.94</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J152" s="3">
         <v>3</v>
@@ -6895,7 +6899,7 @@
       </c>
       <c r="F153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>13</v>
@@ -6904,7 +6908,7 @@
         <v>1064.94</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J153" s="3">
         <v>4</v>
@@ -6937,7 +6941,7 @@
       </c>
       <c r="F154" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>14</v>
@@ -6946,7 +6950,7 @@
         <v>2129.88</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J154" s="3">
         <v>1</v>
@@ -6973,7 +6977,7 @@
       </c>
       <c r="F155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>14</v>
@@ -6982,7 +6986,7 @@
         <v>2129.88</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J155" s="3">
         <v>2</v>
@@ -7015,7 +7019,7 @@
       </c>
       <c r="F156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>14</v>
@@ -7024,7 +7028,7 @@
         <v>2129.88</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J156" s="3">
         <v>3</v>
@@ -7057,7 +7061,7 @@
       </c>
       <c r="F157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>14</v>
@@ -7066,7 +7070,7 @@
         <v>2129.88</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J157" s="3">
         <v>4</v>
@@ -7099,7 +7103,7 @@
       </c>
       <c r="F158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>15</v>
@@ -7108,7 +7112,7 @@
         <v>4259.75</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J158" s="3">
         <v>1</v>
@@ -7141,7 +7145,7 @@
       </c>
       <c r="F159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>15</v>
@@ -7150,7 +7154,7 @@
         <v>4259.75</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J159" s="3">
         <v>2</v>
@@ -7183,7 +7187,7 @@
       </c>
       <c r="F160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>15</v>
@@ -7192,7 +7196,7 @@
         <v>4259.75</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J160" s="3">
         <v>3</v>
@@ -7225,7 +7229,7 @@
       </c>
       <c r="F161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>15</v>
@@ -7234,7 +7238,7 @@
         <v>4259.75</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J161" s="3">
         <v>4</v>
@@ -7267,7 +7271,7 @@
       </c>
       <c r="F162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>9</v>
@@ -7276,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J162" s="3">
         <v>1</v>
@@ -7309,7 +7313,7 @@
       </c>
       <c r="F163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>9</v>
@@ -7318,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J163" s="3">
         <v>2</v>
@@ -7351,7 +7355,7 @@
       </c>
       <c r="F164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>9</v>
@@ -7360,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J164" s="3">
         <v>3</v>
@@ -7393,7 +7397,7 @@
       </c>
       <c r="F165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>9</v>
@@ -7402,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J165" s="3">
         <v>4</v>
@@ -7435,7 +7439,7 @@
       </c>
       <c r="F166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>20</v>
@@ -7444,7 +7448,7 @@
         <v>16.64</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J166" s="3">
         <v>1</v>
@@ -7477,7 +7481,7 @@
       </c>
       <c r="F167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>20</v>
@@ -7486,7 +7490,7 @@
         <v>16.64</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J167" s="3">
         <v>2</v>
@@ -7519,7 +7523,7 @@
       </c>
       <c r="F168" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>20</v>
@@ -7528,7 +7532,7 @@
         <v>16.64</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J168" s="3">
         <v>3</v>
@@ -7561,7 +7565,7 @@
       </c>
       <c r="F169" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>20</v>
@@ -7570,7 +7574,7 @@
         <v>16.64</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J169" s="3">
         <v>4</v>
@@ -7603,7 +7607,7 @@
       </c>
       <c r="F170" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>21</v>
@@ -7612,7 +7616,7 @@
         <v>33.28</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J170" s="3">
         <v>1</v>
@@ -7645,7 +7649,7 @@
       </c>
       <c r="F171" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>21</v>
@@ -7654,7 +7658,7 @@
         <v>33.28</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J171" s="3">
         <v>2</v>
@@ -7687,7 +7691,7 @@
       </c>
       <c r="F172" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>21</v>
@@ -7696,7 +7700,7 @@
         <v>33.28</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J172" s="3">
         <v>3</v>
@@ -7729,7 +7733,7 @@
       </c>
       <c r="F173" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>21</v>
@@ -7738,7 +7742,7 @@
         <v>33.28</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J173" s="3">
         <v>4</v>
@@ -7771,7 +7775,7 @@
       </c>
       <c r="F174" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>22</v>
@@ -7780,7 +7784,7 @@
         <v>66.56</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J174" s="3">
         <v>1</v>
@@ -7813,7 +7817,7 @@
       </c>
       <c r="F175" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>22</v>
@@ -7822,7 +7826,7 @@
         <v>66.56</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J175" s="3">
         <v>2</v>
@@ -7855,7 +7859,7 @@
       </c>
       <c r="F176" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>22</v>
@@ -7864,7 +7868,7 @@
         <v>66.56</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J176" s="3">
         <v>3</v>
@@ -7897,7 +7901,7 @@
       </c>
       <c r="F177" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>22</v>
@@ -7906,7 +7910,7 @@
         <v>66.56</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J177" s="3">
         <v>4</v>
@@ -7939,7 +7943,7 @@
       </c>
       <c r="F178" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>10</v>
@@ -7948,7 +7952,7 @@
         <v>133.12</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J178" s="3">
         <v>1</v>
@@ -7981,7 +7985,7 @@
       </c>
       <c r="F179" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>10</v>
@@ -7990,7 +7994,7 @@
         <v>133.12</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J179" s="3">
         <v>2</v>
@@ -8023,7 +8027,7 @@
       </c>
       <c r="F180" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>10</v>
@@ -8032,7 +8036,7 @@
         <v>133.12</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J180" s="3">
         <v>3</v>
@@ -8065,7 +8069,7 @@
       </c>
       <c r="F181" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>10</v>
@@ -8074,7 +8078,7 @@
         <v>133.12</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J181" s="3">
         <v>4</v>
@@ -8107,7 +8111,7 @@
       </c>
       <c r="F182" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>11</v>
@@ -8116,7 +8120,7 @@
         <v>266.23</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J182" s="3">
         <v>1</v>
@@ -8149,7 +8153,7 @@
       </c>
       <c r="F183" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>11</v>
@@ -8158,7 +8162,7 @@
         <v>266.23</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J183" s="3">
         <v>2</v>
@@ -8191,7 +8195,7 @@
       </c>
       <c r="F184" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>11</v>
@@ -8200,7 +8204,7 @@
         <v>266.23</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J184" s="3">
         <v>3</v>
@@ -8233,7 +8237,7 @@
       </c>
       <c r="F185" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>11</v>
@@ -8242,7 +8246,7 @@
         <v>266.23</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J185" s="3">
         <v>4</v>
@@ -8275,7 +8279,7 @@
       </c>
       <c r="F186" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>12</v>
@@ -8284,7 +8288,7 @@
         <v>532.47</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J186" s="3">
         <v>1</v>
@@ -8317,7 +8321,7 @@
       </c>
       <c r="F187" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>12</v>
@@ -8326,7 +8330,7 @@
         <v>532.47</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J187" s="3">
         <v>2</v>
@@ -8359,7 +8363,7 @@
       </c>
       <c r="F188" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>12</v>
@@ -8368,7 +8372,7 @@
         <v>532.47</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J188" s="3">
         <v>3</v>
@@ -8401,7 +8405,7 @@
       </c>
       <c r="F189" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>12</v>
@@ -8410,7 +8414,7 @@
         <v>532.47</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J189" s="3">
         <v>4</v>
@@ -8443,7 +8447,7 @@
       </c>
       <c r="F190" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>13</v>
@@ -8452,7 +8456,7 @@
         <v>1064.94</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J190" s="3">
         <v>1</v>
@@ -8485,7 +8489,7 @@
       </c>
       <c r="F191" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>13</v>
@@ -8494,7 +8498,7 @@
         <v>1064.94</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J191" s="3">
         <v>2</v>
@@ -8527,7 +8531,7 @@
       </c>
       <c r="F192" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>13</v>
@@ -8536,7 +8540,7 @@
         <v>1064.94</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J192" s="3">
         <v>3</v>
@@ -8569,7 +8573,7 @@
       </c>
       <c r="F193" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>13</v>
@@ -8578,7 +8582,7 @@
         <v>1064.94</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J193" s="3">
         <v>4</v>
@@ -8611,7 +8615,7 @@
       </c>
       <c r="F194" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>14</v>
@@ -8620,7 +8624,7 @@
         <v>2129.88</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J194" s="3">
         <v>1</v>
@@ -8653,7 +8657,7 @@
       </c>
       <c r="F195" s="3" t="str">
         <f t="shared" ref="F195:F258" si="3">_xlfn.CONCAT(D195,"+",E195,"+",I195)</f>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>14</v>
@@ -8662,7 +8666,7 @@
         <v>2129.88</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J195" s="3">
         <v>2</v>
@@ -8695,7 +8699,7 @@
       </c>
       <c r="F196" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>14</v>
@@ -8704,7 +8708,7 @@
         <v>2129.88</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J196" s="3">
         <v>3</v>
@@ -8731,7 +8735,7 @@
       </c>
       <c r="F197" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>14</v>
@@ -8740,7 +8744,7 @@
         <v>2129.88</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J197" s="3">
         <v>4</v>
@@ -8773,7 +8777,7 @@
       </c>
       <c r="F198" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>15</v>
@@ -8782,7 +8786,7 @@
         <v>4259.75</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J198" s="3">
         <v>1</v>
@@ -8815,7 +8819,7 @@
       </c>
       <c r="F199" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>15</v>
@@ -8824,7 +8828,7 @@
         <v>4259.75</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J199" s="3">
         <v>2</v>
@@ -8857,7 +8861,7 @@
       </c>
       <c r="F200" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>15</v>
@@ -8866,7 +8870,7 @@
         <v>4259.75</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J200" s="3">
         <v>3</v>
@@ -8899,7 +8903,7 @@
       </c>
       <c r="F201" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>15</v>
@@ -8908,7 +8912,7 @@
         <v>4259.75</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J201" s="3">
         <v>4</v>
@@ -8950,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J202" s="3">
         <v>1</v>
@@ -8992,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J203" s="3">
         <v>2</v>
@@ -9034,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J204" s="3">
         <v>3</v>
@@ -9076,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J205" s="3">
         <v>4</v>
@@ -9118,7 +9122,7 @@
         <v>16.64</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J206" s="3">
         <v>1</v>
@@ -9160,7 +9164,7 @@
         <v>16.64</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J207" s="3">
         <v>2</v>
@@ -9202,7 +9206,7 @@
         <v>16.64</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J208" s="3">
         <v>3</v>
@@ -9244,7 +9248,7 @@
         <v>16.64</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J209" s="3">
         <v>4</v>
@@ -9286,7 +9290,7 @@
         <v>33.28</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J210" s="3">
         <v>1</v>
@@ -9328,7 +9332,7 @@
         <v>33.28</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J211" s="3">
         <v>2</v>
@@ -9370,7 +9374,7 @@
         <v>33.28</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J212" s="3">
         <v>3</v>
@@ -9412,7 +9416,7 @@
         <v>33.28</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J213" s="3">
         <v>4</v>
@@ -9454,7 +9458,7 @@
         <v>66.56</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J214" s="3">
         <v>1</v>
@@ -9496,7 +9500,7 @@
         <v>66.56</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J215" s="3">
         <v>2</v>
@@ -9538,7 +9542,7 @@
         <v>66.56</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J216" s="3">
         <v>3</v>
@@ -9580,7 +9584,7 @@
         <v>66.56</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J217" s="3">
         <v>4</v>
@@ -9622,7 +9626,7 @@
         <v>133.12</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J218" s="3">
         <v>1</v>
@@ -9664,7 +9668,7 @@
         <v>133.12</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J219" s="3">
         <v>2</v>
@@ -9706,7 +9710,7 @@
         <v>133.12</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J220" s="3">
         <v>3</v>
@@ -9748,7 +9752,7 @@
         <v>133.12</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J221" s="3">
         <v>4</v>
@@ -9790,7 +9794,7 @@
         <v>266.23</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J222" s="3">
         <v>1</v>
@@ -9832,7 +9836,7 @@
         <v>266.23</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -9874,7 +9878,7 @@
         <v>266.23</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J224" s="3">
         <v>3</v>
@@ -9916,7 +9920,7 @@
         <v>266.23</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J225" s="3">
         <v>4</v>
@@ -9958,7 +9962,7 @@
         <v>532.47</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J226" s="3">
         <v>1</v>
@@ -10000,7 +10004,7 @@
         <v>532.47</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J227" s="3">
         <v>2</v>
@@ -10042,7 +10046,7 @@
         <v>532.47</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J228" s="3">
         <v>3</v>
@@ -10084,7 +10088,7 @@
         <v>532.47</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J229" s="3">
         <v>4</v>
@@ -10126,7 +10130,7 @@
         <v>1064.94</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J230" s="3">
         <v>1</v>
@@ -10168,7 +10172,7 @@
         <v>1064.94</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J231" s="3">
         <v>2</v>
@@ -10210,7 +10214,7 @@
         <v>1064.94</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J232" s="3">
         <v>3</v>
@@ -10252,7 +10256,7 @@
         <v>1064.94</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J233" s="3">
         <v>4</v>
@@ -10294,7 +10298,7 @@
         <v>2129.88</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J234" s="3">
         <v>1</v>
@@ -10336,7 +10340,7 @@
         <v>2129.88</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J235" s="3">
         <v>2</v>
@@ -10378,7 +10382,7 @@
         <v>2129.88</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J236" s="3">
         <v>3</v>
@@ -10420,7 +10424,7 @@
         <v>2129.88</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J237" s="3">
         <v>4</v>
@@ -10462,7 +10466,7 @@
         <v>4259.75</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J238" s="3">
         <v>1</v>
@@ -10504,7 +10508,7 @@
         <v>4259.75</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J239" s="3">
         <v>2</v>
@@ -10546,7 +10550,7 @@
         <v>4259.75</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J240" s="3">
         <v>3</v>
@@ -10588,7 +10592,7 @@
         <v>4259.75</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J241" s="3">
         <v>4</v>
@@ -10630,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J242" s="3">
         <v>1</v>
@@ -10672,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J243" s="3">
         <v>2</v>
@@ -10714,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J244" s="3">
         <v>3</v>
@@ -10756,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J245" s="3">
         <v>4</v>
@@ -10798,7 +10802,7 @@
         <v>16.64</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J246" s="3">
         <v>1</v>
@@ -10840,7 +10844,7 @@
         <v>16.64</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J247" s="3">
         <v>2</v>
@@ -10882,7 +10886,7 @@
         <v>16.64</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J248" s="3">
         <v>3</v>
@@ -10924,7 +10928,7 @@
         <v>16.64</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J249" s="3">
         <v>4</v>
@@ -10966,7 +10970,7 @@
         <v>33.28</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J250" s="3">
         <v>1</v>
@@ -11008,7 +11012,7 @@
         <v>33.28</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J251" s="3">
         <v>2</v>
@@ -11050,7 +11054,7 @@
         <v>33.28</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J252" s="3">
         <v>3</v>
@@ -11092,7 +11096,7 @@
         <v>33.28</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J253" s="3">
         <v>4</v>
@@ -11134,7 +11138,7 @@
         <v>66.56</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J254" s="3">
         <v>1</v>
@@ -11176,7 +11180,7 @@
         <v>66.56</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J255" s="3">
         <v>2</v>
@@ -11218,7 +11222,7 @@
         <v>66.56</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J256" s="3">
         <v>3</v>
@@ -11260,7 +11264,7 @@
         <v>66.56</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J257" s="3">
         <v>4</v>
@@ -11302,7 +11306,7 @@
         <v>133.12</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J258" s="3">
         <v>1</v>
@@ -11344,7 +11348,7 @@
         <v>133.12</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J259" s="3">
         <v>2</v>
@@ -11386,7 +11390,7 @@
         <v>133.12</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J260" s="3">
         <v>3</v>
@@ -11428,7 +11432,7 @@
         <v>133.12</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J261" s="3">
         <v>4</v>
@@ -11470,7 +11474,7 @@
         <v>266.23</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J262" s="3">
         <v>1</v>
@@ -11512,7 +11516,7 @@
         <v>266.23</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J263" s="3">
         <v>2</v>
@@ -11554,7 +11558,7 @@
         <v>266.23</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J264" s="3">
         <v>3</v>
@@ -11596,7 +11600,7 @@
         <v>266.23</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J265" s="3">
         <v>4</v>
@@ -11638,7 +11642,7 @@
         <v>532.47</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J266" s="3">
         <v>1</v>
@@ -11680,7 +11684,7 @@
         <v>532.47</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J267" s="3">
         <v>2</v>
@@ -11722,7 +11726,7 @@
         <v>532.47</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J268" s="3">
         <v>3</v>
@@ -11764,7 +11768,7 @@
         <v>532.47</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J269" s="3">
         <v>4</v>
@@ -11806,7 +11810,7 @@
         <v>1064.94</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J270" s="3">
         <v>1</v>
@@ -11848,7 +11852,7 @@
         <v>1064.94</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J271" s="3">
         <v>2</v>
@@ -11890,7 +11894,7 @@
         <v>1064.94</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J272" s="3">
         <v>3</v>
@@ -11932,7 +11936,7 @@
         <v>1064.94</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J273" s="3">
         <v>4</v>
@@ -11974,7 +11978,7 @@
         <v>2129.88</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J274" s="3">
         <v>1</v>
@@ -12016,7 +12020,7 @@
         <v>2129.88</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J275" s="3">
         <v>2</v>
@@ -12058,7 +12062,7 @@
         <v>2129.88</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J276" s="3">
         <v>3</v>
@@ -12100,7 +12104,7 @@
         <v>2129.88</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J277" s="3">
         <v>4</v>
@@ -12142,7 +12146,7 @@
         <v>4259.75</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J278" s="3">
         <v>1</v>
@@ -12184,7 +12188,7 @@
         <v>4259.75</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J279" s="3">
         <v>2</v>
@@ -12226,7 +12230,7 @@
         <v>4259.75</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J280" s="3">
         <v>3</v>
@@ -12268,7 +12272,7 @@
         <v>4259.75</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J281" s="3">
         <v>4</v>
@@ -12310,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J282" s="3">
         <v>1</v>
@@ -12352,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J283" s="3">
         <v>2</v>
@@ -12394,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J284" s="3">
         <v>3</v>
@@ -12436,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J285" s="3">
         <v>4</v>
@@ -12478,7 +12482,7 @@
         <v>16.64</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J286" s="3">
         <v>1</v>
@@ -12520,7 +12524,7 @@
         <v>16.64</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J287" s="3">
         <v>2</v>
@@ -12562,7 +12566,7 @@
         <v>16.64</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J288" s="3">
         <v>3</v>
@@ -12604,7 +12608,7 @@
         <v>16.64</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J289" s="3">
         <v>4</v>
@@ -12646,7 +12650,7 @@
         <v>33.28</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J290" s="3">
         <v>1</v>
@@ -12688,7 +12692,7 @@
         <v>33.28</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J291" s="3">
         <v>2</v>
@@ -12730,7 +12734,7 @@
         <v>33.28</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J292" s="3">
         <v>3</v>
@@ -12772,7 +12776,7 @@
         <v>33.28</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J293" s="3">
         <v>4</v>
@@ -12814,7 +12818,7 @@
         <v>66.56</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J294" s="3">
         <v>1</v>
@@ -12856,7 +12860,7 @@
         <v>66.56</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J295" s="3">
         <v>2</v>
@@ -12898,7 +12902,7 @@
         <v>66.56</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J296" s="3">
         <v>3</v>
@@ -12940,7 +12944,7 @@
         <v>66.56</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J297" s="3">
         <v>4</v>
@@ -12982,7 +12986,7 @@
         <v>133.12</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J298" s="3">
         <v>1</v>
@@ -13024,7 +13028,7 @@
         <v>133.12</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J299" s="3">
         <v>2</v>
@@ -13066,7 +13070,7 @@
         <v>133.12</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J300" s="3">
         <v>3</v>
@@ -13108,7 +13112,7 @@
         <v>133.12</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J301" s="3">
         <v>4</v>
@@ -13150,7 +13154,7 @@
         <v>266.23</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J302" s="3">
         <v>1</v>
@@ -13192,7 +13196,7 @@
         <v>266.23</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J303" s="3">
         <v>2</v>
@@ -13234,7 +13238,7 @@
         <v>266.23</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J304" s="3">
         <v>3</v>
@@ -13276,7 +13280,7 @@
         <v>266.23</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J305" s="3">
         <v>4</v>
@@ -13318,7 +13322,7 @@
         <v>532.47</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J306" s="3">
         <v>1</v>
@@ -13360,7 +13364,7 @@
         <v>532.47</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J307" s="3">
         <v>2</v>
@@ -13402,7 +13406,7 @@
         <v>532.47</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J308" s="3">
         <v>3</v>
@@ -13444,7 +13448,7 @@
         <v>532.47</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J309" s="3">
         <v>4</v>
@@ -13486,7 +13490,7 @@
         <v>1064.94</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J310" s="3">
         <v>1</v>
@@ -13528,7 +13532,7 @@
         <v>1064.94</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J311" s="3">
         <v>2</v>
@@ -13570,7 +13574,7 @@
         <v>1064.94</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J312" s="3">
         <v>3</v>
@@ -13612,7 +13616,7 @@
         <v>1064.94</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J313" s="3">
         <v>4</v>
@@ -13654,7 +13658,7 @@
         <v>2129.88</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J314" s="3">
         <v>1</v>
@@ -13696,7 +13700,7 @@
         <v>2129.88</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J315" s="3">
         <v>2</v>
@@ -13738,7 +13742,7 @@
         <v>2129.88</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J316" s="3">
         <v>3</v>
@@ -13780,7 +13784,7 @@
         <v>2129.88</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J317" s="3">
         <v>4</v>
@@ -13822,7 +13826,7 @@
         <v>4259.75</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J318" s="3">
         <v>1</v>
@@ -13864,7 +13868,7 @@
         <v>4259.75</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J319" s="3">
         <v>2</v>
@@ -13906,7 +13910,7 @@
         <v>4259.75</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J320" s="3">
         <v>3</v>
@@ -13948,7 +13952,7 @@
         <v>4259.75</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J321" s="3">
         <v>4</v>
@@ -13981,7 +13985,7 @@
       </c>
       <c r="F322" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>9</v>
@@ -13990,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J322" s="3">
         <v>1</v>
@@ -14023,7 +14027,7 @@
       </c>
       <c r="F323" s="3" t="str">
         <f t="shared" ref="F323:F386" si="5">_xlfn.CONCAT(D323,"+",E323,"+",I323)</f>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>9</v>
@@ -14032,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J323" s="3">
         <v>2</v>
@@ -14065,7 +14069,7 @@
       </c>
       <c r="F324" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>9</v>
@@ -14074,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J324" s="3">
         <v>3</v>
@@ -14107,7 +14111,7 @@
       </c>
       <c r="F325" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>9</v>
@@ -14116,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J325" s="3">
         <v>4</v>
@@ -14149,7 +14153,7 @@
       </c>
       <c r="F326" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>20</v>
@@ -14158,7 +14162,7 @@
         <v>16.64</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J326" s="3">
         <v>1</v>
@@ -14191,7 +14195,7 @@
       </c>
       <c r="F327" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>20</v>
@@ -14200,7 +14204,7 @@
         <v>16.64</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J327" s="3">
         <v>2</v>
@@ -14233,7 +14237,7 @@
       </c>
       <c r="F328" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>20</v>
@@ -14242,7 +14246,7 @@
         <v>16.64</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J328" s="3">
         <v>3</v>
@@ -14275,7 +14279,7 @@
       </c>
       <c r="F329" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G329" s="3" t="s">
         <v>20</v>
@@ -14284,7 +14288,7 @@
         <v>16.64</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J329" s="3">
         <v>4</v>
@@ -14317,7 +14321,7 @@
       </c>
       <c r="F330" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>21</v>
@@ -14326,7 +14330,7 @@
         <v>33.28</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J330" s="3">
         <v>1</v>
@@ -14359,7 +14363,7 @@
       </c>
       <c r="F331" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G331" s="3" t="s">
         <v>21</v>
@@ -14368,7 +14372,7 @@
         <v>33.28</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J331" s="3">
         <v>2</v>
@@ -14401,7 +14405,7 @@
       </c>
       <c r="F332" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>21</v>
@@ -14410,7 +14414,7 @@
         <v>33.28</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J332" s="3">
         <v>3</v>
@@ -14443,7 +14447,7 @@
       </c>
       <c r="F333" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>21</v>
@@ -14452,7 +14456,7 @@
         <v>33.28</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J333" s="3">
         <v>4</v>
@@ -14485,7 +14489,7 @@
       </c>
       <c r="F334" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G334" s="3" t="s">
         <v>22</v>
@@ -14494,7 +14498,7 @@
         <v>66.56</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J334" s="3">
         <v>1</v>
@@ -14527,7 +14531,7 @@
       </c>
       <c r="F335" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G335" s="3" t="s">
         <v>22</v>
@@ -14536,7 +14540,7 @@
         <v>66.56</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J335" s="3">
         <v>2</v>
@@ -14569,7 +14573,7 @@
       </c>
       <c r="F336" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>22</v>
@@ -14578,7 +14582,7 @@
         <v>66.56</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J336" s="3">
         <v>3</v>
@@ -14611,7 +14615,7 @@
       </c>
       <c r="F337" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G337" s="3" t="s">
         <v>22</v>
@@ -14620,7 +14624,7 @@
         <v>66.56</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J337" s="3">
         <v>4</v>
@@ -14653,7 +14657,7 @@
       </c>
       <c r="F338" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>10</v>
@@ -14662,7 +14666,7 @@
         <v>133.12</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J338" s="3">
         <v>1</v>
@@ -14695,7 +14699,7 @@
       </c>
       <c r="F339" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>10</v>
@@ -14704,7 +14708,7 @@
         <v>133.12</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J339" s="3">
         <v>2</v>
@@ -14737,7 +14741,7 @@
       </c>
       <c r="F340" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>10</v>
@@ -14746,7 +14750,7 @@
         <v>133.12</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J340" s="3">
         <v>3</v>
@@ -14779,7 +14783,7 @@
       </c>
       <c r="F341" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>10</v>
@@ -14788,7 +14792,7 @@
         <v>133.12</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J341" s="3">
         <v>4</v>
@@ -14821,7 +14825,7 @@
       </c>
       <c r="F342" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>11</v>
@@ -14830,7 +14834,7 @@
         <v>266.23</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J342" s="3">
         <v>1</v>
@@ -14863,7 +14867,7 @@
       </c>
       <c r="F343" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>11</v>
@@ -14872,7 +14876,7 @@
         <v>266.23</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J343" s="3">
         <v>2</v>
@@ -14905,7 +14909,7 @@
       </c>
       <c r="F344" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>11</v>
@@ -14914,7 +14918,7 @@
         <v>266.23</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J344" s="3">
         <v>3</v>
@@ -14947,7 +14951,7 @@
       </c>
       <c r="F345" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>11</v>
@@ -14956,7 +14960,7 @@
         <v>266.23</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J345" s="3">
         <v>4</v>
@@ -14989,7 +14993,7 @@
       </c>
       <c r="F346" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>12</v>
@@ -14998,7 +15002,7 @@
         <v>532.47</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J346" s="3">
         <v>1</v>
@@ -15031,7 +15035,7 @@
       </c>
       <c r="F347" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>12</v>
@@ -15040,7 +15044,7 @@
         <v>532.47</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J347" s="3">
         <v>2</v>
@@ -15073,7 +15077,7 @@
       </c>
       <c r="F348" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>12</v>
@@ -15082,7 +15086,7 @@
         <v>532.47</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J348" s="3">
         <v>3</v>
@@ -15115,7 +15119,7 @@
       </c>
       <c r="F349" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>12</v>
@@ -15124,7 +15128,7 @@
         <v>532.47</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J349" s="3">
         <v>4</v>
@@ -15157,7 +15161,7 @@
       </c>
       <c r="F350" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>13</v>
@@ -15166,7 +15170,7 @@
         <v>1064.94</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J350" s="3">
         <v>1</v>
@@ -15199,7 +15203,7 @@
       </c>
       <c r="F351" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>13</v>
@@ -15208,7 +15212,7 @@
         <v>1064.94</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J351" s="3">
         <v>2</v>
@@ -15241,7 +15245,7 @@
       </c>
       <c r="F352" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>13</v>
@@ -15250,7 +15254,7 @@
         <v>1064.94</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J352" s="3">
         <v>3</v>
@@ -15283,7 +15287,7 @@
       </c>
       <c r="F353" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>13</v>
@@ -15292,7 +15296,7 @@
         <v>1064.94</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J353" s="3">
         <v>4</v>
@@ -15325,7 +15329,7 @@
       </c>
       <c r="F354" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>14</v>
@@ -15334,7 +15338,7 @@
         <v>2129.88</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J354" s="3">
         <v>1</v>
@@ -15367,7 +15371,7 @@
       </c>
       <c r="F355" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>14</v>
@@ -15376,7 +15380,7 @@
         <v>2129.88</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J355" s="3">
         <v>2</v>
@@ -15409,7 +15413,7 @@
       </c>
       <c r="F356" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>14</v>
@@ -15418,7 +15422,7 @@
         <v>2129.88</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J356" s="3">
         <v>3</v>
@@ -15451,7 +15455,7 @@
       </c>
       <c r="F357" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>14</v>
@@ -15460,7 +15464,7 @@
         <v>2129.88</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J357" s="3">
         <v>4</v>
@@ -15493,7 +15497,7 @@
       </c>
       <c r="F358" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>15</v>
@@ -15502,7 +15506,7 @@
         <v>4259.75</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J358" s="3">
         <v>1</v>
@@ -15535,7 +15539,7 @@
       </c>
       <c r="F359" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>15</v>
@@ -15544,7 +15548,7 @@
         <v>4259.75</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J359" s="3">
         <v>2</v>
@@ -15577,7 +15581,7 @@
       </c>
       <c r="F360" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G360" s="3" t="s">
         <v>15</v>
@@ -15586,7 +15590,7 @@
         <v>4259.75</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J360" s="3">
         <v>3</v>
@@ -15619,7 +15623,7 @@
       </c>
       <c r="F361" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>A82+2,4D+elevated</v>
+        <v>A82+2,4D+increased</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>15</v>
@@ -15628,7 +15632,7 @@
         <v>4259.75</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J361" s="3">
         <v>4</v>
@@ -15670,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J362" s="3">
         <v>1</v>
@@ -15712,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J363" s="3">
         <v>2</v>
@@ -15754,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J364" s="3">
         <v>3</v>
@@ -15796,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J365" s="3">
         <v>4</v>
@@ -15838,7 +15842,7 @@
         <v>16.64</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J366" s="3">
         <v>1</v>
@@ -15880,7 +15884,7 @@
         <v>16.64</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J367" s="3">
         <v>2</v>
@@ -15922,7 +15926,7 @@
         <v>16.64</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J368" s="3">
         <v>3</v>
@@ -15964,7 +15968,7 @@
         <v>16.64</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J369" s="3">
         <v>4</v>
@@ -16006,7 +16010,7 @@
         <v>33.28</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J370" s="3">
         <v>1</v>
@@ -16048,7 +16052,7 @@
         <v>33.28</v>
       </c>
       <c r="I371" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J371" s="3">
         <v>2</v>
@@ -16090,7 +16094,7 @@
         <v>33.28</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J372" s="3">
         <v>3</v>
@@ -16132,7 +16136,7 @@
         <v>33.28</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J373" s="3">
         <v>4</v>
@@ -16174,7 +16178,7 @@
         <v>66.56</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J374" s="3">
         <v>1</v>
@@ -16216,7 +16220,7 @@
         <v>66.56</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J375" s="3">
         <v>2</v>
@@ -16258,7 +16262,7 @@
         <v>66.56</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J376" s="3">
         <v>3</v>
@@ -16300,7 +16304,7 @@
         <v>66.56</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J377" s="3">
         <v>4</v>
@@ -16342,7 +16346,7 @@
         <v>133.12</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J378" s="3">
         <v>1</v>
@@ -16384,7 +16388,7 @@
         <v>133.12</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J379" s="3">
         <v>2</v>
@@ -16426,7 +16430,7 @@
         <v>133.12</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J380" s="3">
         <v>3</v>
@@ -16468,7 +16472,7 @@
         <v>133.12</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J381" s="3">
         <v>4</v>
@@ -16510,7 +16514,7 @@
         <v>266.23</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J382" s="3">
         <v>1</v>
@@ -16552,7 +16556,7 @@
         <v>266.23</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J383" s="3">
         <v>2</v>
@@ -16594,7 +16598,7 @@
         <v>266.23</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J384" s="3">
         <v>3</v>
@@ -16636,7 +16640,7 @@
         <v>266.23</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J385" s="3">
         <v>4</v>
@@ -16678,7 +16682,7 @@
         <v>532.47</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J386" s="3">
         <v>1</v>
@@ -16720,7 +16724,7 @@
         <v>532.47</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J387" s="3">
         <v>2</v>
@@ -16762,7 +16766,7 @@
         <v>532.47</v>
       </c>
       <c r="I388" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J388" s="3">
         <v>3</v>
@@ -16804,7 +16808,7 @@
         <v>532.47</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J389" s="3">
         <v>4</v>
@@ -16846,7 +16850,7 @@
         <v>1064.94</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J390" s="3">
         <v>1</v>
@@ -16888,7 +16892,7 @@
         <v>1064.94</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J391" s="3">
         <v>2</v>
@@ -16930,7 +16934,7 @@
         <v>1064.94</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J392" s="3">
         <v>3</v>
@@ -16972,7 +16976,7 @@
         <v>1064.94</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J393" s="3">
         <v>4</v>
@@ -17014,7 +17018,7 @@
         <v>2129.88</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J394" s="3">
         <v>1</v>
@@ -17056,7 +17060,7 @@
         <v>2129.88</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J395" s="3">
         <v>2</v>
@@ -17098,7 +17102,7 @@
         <v>2129.88</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J396" s="3">
         <v>3</v>
@@ -17140,7 +17144,7 @@
         <v>2129.88</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J397" s="3">
         <v>4</v>
@@ -17182,7 +17186,7 @@
         <v>4259.75</v>
       </c>
       <c r="I398" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J398" s="3">
         <v>1</v>
@@ -17224,7 +17228,7 @@
         <v>4259.75</v>
       </c>
       <c r="I399" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J399" s="3">
         <v>2</v>
@@ -17266,7 +17270,7 @@
         <v>4259.75</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J400" s="3">
         <v>3</v>
@@ -17308,7 +17312,7 @@
         <v>4259.75</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J401" s="3">
         <v>4</v>
@@ -17341,7 +17345,7 @@
       </c>
       <c r="F402" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>9</v>
@@ -17350,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J402" s="3">
         <v>1</v>
@@ -17383,7 +17387,7 @@
       </c>
       <c r="F403" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>9</v>
@@ -17392,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J403" s="3">
         <v>2</v>
@@ -17425,7 +17429,7 @@
       </c>
       <c r="F404" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G404" s="3" t="s">
         <v>9</v>
@@ -17434,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J404" s="3">
         <v>3</v>
@@ -17467,7 +17471,7 @@
       </c>
       <c r="F405" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>9</v>
@@ -17476,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J405" s="3">
         <v>4</v>
@@ -17509,7 +17513,7 @@
       </c>
       <c r="F406" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G406" s="3" t="s">
         <v>20</v>
@@ -17518,7 +17522,7 @@
         <v>16.64</v>
       </c>
       <c r="I406" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J406" s="3">
         <v>1</v>
@@ -17551,7 +17555,7 @@
       </c>
       <c r="F407" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>20</v>
@@ -17560,7 +17564,7 @@
         <v>16.64</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J407" s="3">
         <v>2</v>
@@ -17593,7 +17597,7 @@
       </c>
       <c r="F408" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>20</v>
@@ -17602,7 +17606,7 @@
         <v>16.64</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J408" s="3">
         <v>3</v>
@@ -17635,7 +17639,7 @@
       </c>
       <c r="F409" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G409" s="3" t="s">
         <v>20</v>
@@ -17644,7 +17648,7 @@
         <v>16.64</v>
       </c>
       <c r="I409" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J409" s="3">
         <v>4</v>
@@ -17677,7 +17681,7 @@
       </c>
       <c r="F410" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>21</v>
@@ -17686,7 +17690,7 @@
         <v>33.28</v>
       </c>
       <c r="I410" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J410" s="3">
         <v>1</v>
@@ -17719,7 +17723,7 @@
       </c>
       <c r="F411" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>21</v>
@@ -17728,7 +17732,7 @@
         <v>33.28</v>
       </c>
       <c r="I411" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J411" s="3">
         <v>2</v>
@@ -17761,7 +17765,7 @@
       </c>
       <c r="F412" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>21</v>
@@ -17770,7 +17774,7 @@
         <v>33.28</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J412" s="3">
         <v>3</v>
@@ -17803,7 +17807,7 @@
       </c>
       <c r="F413" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>21</v>
@@ -17812,7 +17816,7 @@
         <v>33.28</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J413" s="3">
         <v>4</v>
@@ -17845,7 +17849,7 @@
       </c>
       <c r="F414" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>22</v>
@@ -17854,7 +17858,7 @@
         <v>66.56</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J414" s="3">
         <v>1</v>
@@ -17887,7 +17891,7 @@
       </c>
       <c r="F415" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>22</v>
@@ -17896,7 +17900,7 @@
         <v>66.56</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J415" s="3">
         <v>2</v>
@@ -17929,7 +17933,7 @@
       </c>
       <c r="F416" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>22</v>
@@ -17938,7 +17942,7 @@
         <v>66.56</v>
       </c>
       <c r="I416" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J416" s="3">
         <v>3</v>
@@ -17971,7 +17975,7 @@
       </c>
       <c r="F417" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>22</v>
@@ -17980,7 +17984,7 @@
         <v>66.56</v>
       </c>
       <c r="I417" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J417" s="3">
         <v>4</v>
@@ -18013,7 +18017,7 @@
       </c>
       <c r="F418" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>10</v>
@@ -18022,7 +18026,7 @@
         <v>133.12</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J418" s="3">
         <v>1</v>
@@ -18055,7 +18059,7 @@
       </c>
       <c r="F419" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>10</v>
@@ -18064,7 +18068,7 @@
         <v>133.12</v>
       </c>
       <c r="I419" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J419" s="3">
         <v>2</v>
@@ -18097,7 +18101,7 @@
       </c>
       <c r="F420" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>10</v>
@@ -18106,7 +18110,7 @@
         <v>133.12</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J420" s="3">
         <v>3</v>
@@ -18139,7 +18143,7 @@
       </c>
       <c r="F421" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>10</v>
@@ -18148,7 +18152,7 @@
         <v>133.12</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J421" s="3">
         <v>4</v>
@@ -18181,7 +18185,7 @@
       </c>
       <c r="F422" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>11</v>
@@ -18190,7 +18194,7 @@
         <v>266.23</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J422" s="3">
         <v>1</v>
@@ -18223,7 +18227,7 @@
       </c>
       <c r="F423" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>11</v>
@@ -18232,7 +18236,7 @@
         <v>266.23</v>
       </c>
       <c r="I423" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J423" s="3">
         <v>2</v>
@@ -18265,7 +18269,7 @@
       </c>
       <c r="F424" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>11</v>
@@ -18274,7 +18278,7 @@
         <v>266.23</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J424" s="3">
         <v>3</v>
@@ -18307,7 +18311,7 @@
       </c>
       <c r="F425" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>11</v>
@@ -18316,7 +18320,7 @@
         <v>266.23</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J425" s="3">
         <v>4</v>
@@ -18349,7 +18353,7 @@
       </c>
       <c r="F426" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>12</v>
@@ -18358,7 +18362,7 @@
         <v>532.47</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J426" s="3">
         <v>1</v>
@@ -18391,7 +18395,7 @@
       </c>
       <c r="F427" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>12</v>
@@ -18400,7 +18404,7 @@
         <v>532.47</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J427" s="3">
         <v>2</v>
@@ -18433,7 +18437,7 @@
       </c>
       <c r="F428" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>12</v>
@@ -18442,7 +18446,7 @@
         <v>532.47</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J428" s="3">
         <v>3</v>
@@ -18475,7 +18479,7 @@
       </c>
       <c r="F429" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>12</v>
@@ -18484,7 +18488,7 @@
         <v>532.47</v>
       </c>
       <c r="I429" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J429" s="3">
         <v>4</v>
@@ -18517,7 +18521,7 @@
       </c>
       <c r="F430" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>13</v>
@@ -18526,7 +18530,7 @@
         <v>1064.94</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J430" s="3">
         <v>1</v>
@@ -18559,7 +18563,7 @@
       </c>
       <c r="F431" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>13</v>
@@ -18568,7 +18572,7 @@
         <v>1064.94</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J431" s="3">
         <v>2</v>
@@ -18601,7 +18605,7 @@
       </c>
       <c r="F432" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>13</v>
@@ -18610,7 +18614,7 @@
         <v>1064.94</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J432" s="3">
         <v>3</v>
@@ -18643,7 +18647,7 @@
       </c>
       <c r="F433" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>13</v>
@@ -18652,7 +18656,7 @@
         <v>1064.94</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J433" s="3">
         <v>4</v>
@@ -18685,7 +18689,7 @@
       </c>
       <c r="F434" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>14</v>
@@ -18694,7 +18698,7 @@
         <v>2129.88</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J434" s="3">
         <v>1</v>
@@ -18727,7 +18731,7 @@
       </c>
       <c r="F435" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>14</v>
@@ -18736,7 +18740,7 @@
         <v>2129.88</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J435" s="3">
         <v>2</v>
@@ -18769,7 +18773,7 @@
       </c>
       <c r="F436" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G436" s="3" t="s">
         <v>14</v>
@@ -18778,7 +18782,7 @@
         <v>2129.88</v>
       </c>
       <c r="I436" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J436" s="3">
         <v>3</v>
@@ -18811,7 +18815,7 @@
       </c>
       <c r="F437" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>14</v>
@@ -18820,7 +18824,7 @@
         <v>2129.88</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J437" s="3">
         <v>4</v>
@@ -18853,7 +18857,7 @@
       </c>
       <c r="F438" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>15</v>
@@ -18862,7 +18866,7 @@
         <v>4259.75</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J438" s="3">
         <v>1</v>
@@ -18895,7 +18899,7 @@
       </c>
       <c r="F439" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G439" s="3" t="s">
         <v>15</v>
@@ -18904,7 +18908,7 @@
         <v>4259.75</v>
       </c>
       <c r="I439" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J439" s="3">
         <v>2</v>
@@ -18937,7 +18941,7 @@
       </c>
       <c r="F440" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>15</v>
@@ -18946,7 +18950,7 @@
         <v>4259.75</v>
       </c>
       <c r="I440" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J440" s="3">
         <v>3</v>
@@ -18979,7 +18983,7 @@
       </c>
       <c r="F441" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+elevated</v>
+        <v>A101+2,4D+increased</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>15</v>
@@ -18988,7 +18992,7 @@
         <v>4259.75</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J441" s="3">
         <v>4</v>
@@ -19021,7 +19025,7 @@
       </c>
       <c r="F442" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G442" s="3" t="s">
         <v>9</v>
@@ -19030,7 +19034,7 @@
         <v>0</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J442" s="3">
         <v>1</v>
@@ -19063,7 +19067,7 @@
       </c>
       <c r="F443" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>9</v>
@@ -19072,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J443" s="3">
         <v>2</v>
@@ -19105,7 +19109,7 @@
       </c>
       <c r="F444" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>9</v>
@@ -19114,7 +19118,7 @@
         <v>0</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J444" s="3">
         <v>3</v>
@@ -19147,7 +19151,7 @@
       </c>
       <c r="F445" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G445" s="3" t="s">
         <v>9</v>
@@ -19156,7 +19160,7 @@
         <v>0</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J445" s="3">
         <v>4</v>
@@ -19189,7 +19193,7 @@
       </c>
       <c r="F446" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G446" s="3" t="s">
         <v>20</v>
@@ -19198,7 +19202,7 @@
         <v>16.64</v>
       </c>
       <c r="I446" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J446" s="3">
         <v>1</v>
@@ -19231,7 +19235,7 @@
       </c>
       <c r="F447" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>20</v>
@@ -19240,7 +19244,7 @@
         <v>16.64</v>
       </c>
       <c r="I447" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J447" s="3">
         <v>2</v>
@@ -19273,7 +19277,7 @@
       </c>
       <c r="F448" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>20</v>
@@ -19282,7 +19286,7 @@
         <v>16.64</v>
       </c>
       <c r="I448" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J448" s="3">
         <v>3</v>
@@ -19315,7 +19319,7 @@
       </c>
       <c r="F449" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>20</v>
@@ -19324,7 +19328,7 @@
         <v>16.64</v>
       </c>
       <c r="I449" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J449" s="3">
         <v>4</v>
@@ -19357,7 +19361,7 @@
       </c>
       <c r="F450" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>21</v>
@@ -19366,7 +19370,7 @@
         <v>33.28</v>
       </c>
       <c r="I450" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J450" s="3">
         <v>1</v>
@@ -19399,7 +19403,7 @@
       </c>
       <c r="F451" s="3" t="str">
         <f t="shared" ref="F451:F514" si="7">_xlfn.CONCAT(D451,"+",E451,"+",I451)</f>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>21</v>
@@ -19408,7 +19412,7 @@
         <v>33.28</v>
       </c>
       <c r="I451" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J451" s="3">
         <v>2</v>
@@ -19441,7 +19445,7 @@
       </c>
       <c r="F452" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G452" s="3" t="s">
         <v>21</v>
@@ -19450,7 +19454,7 @@
         <v>33.28</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J452" s="3">
         <v>3</v>
@@ -19483,7 +19487,7 @@
       </c>
       <c r="F453" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>21</v>
@@ -19492,7 +19496,7 @@
         <v>33.28</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J453" s="3">
         <v>4</v>
@@ -19525,7 +19529,7 @@
       </c>
       <c r="F454" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>22</v>
@@ -19534,7 +19538,7 @@
         <v>66.56</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J454" s="3">
         <v>1</v>
@@ -19567,7 +19571,7 @@
       </c>
       <c r="F455" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>22</v>
@@ -19576,7 +19580,7 @@
         <v>66.56</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J455" s="3">
         <v>2</v>
@@ -19609,7 +19613,7 @@
       </c>
       <c r="F456" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G456" s="3" t="s">
         <v>22</v>
@@ -19618,7 +19622,7 @@
         <v>66.56</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J456" s="3">
         <v>3</v>
@@ -19651,7 +19655,7 @@
       </c>
       <c r="F457" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G457" s="3" t="s">
         <v>22</v>
@@ -19660,7 +19664,7 @@
         <v>66.56</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J457" s="3">
         <v>4</v>
@@ -19693,7 +19697,7 @@
       </c>
       <c r="F458" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G458" s="3" t="s">
         <v>10</v>
@@ -19702,7 +19706,7 @@
         <v>133.12</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J458" s="3">
         <v>1</v>
@@ -19735,7 +19739,7 @@
       </c>
       <c r="F459" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>10</v>
@@ -19744,7 +19748,7 @@
         <v>133.12</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J459" s="3">
         <v>2</v>
@@ -19777,7 +19781,7 @@
       </c>
       <c r="F460" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>10</v>
@@ -19786,7 +19790,7 @@
         <v>133.12</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J460" s="3">
         <v>3</v>
@@ -19819,7 +19823,7 @@
       </c>
       <c r="F461" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G461" s="3" t="s">
         <v>10</v>
@@ -19828,7 +19832,7 @@
         <v>133.12</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J461" s="3">
         <v>4</v>
@@ -19861,7 +19865,7 @@
       </c>
       <c r="F462" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G462" s="3" t="s">
         <v>11</v>
@@ -19870,7 +19874,7 @@
         <v>266.23</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J462" s="3">
         <v>1</v>
@@ -19903,7 +19907,7 @@
       </c>
       <c r="F463" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G463" s="3" t="s">
         <v>11</v>
@@ -19912,7 +19916,7 @@
         <v>266.23</v>
       </c>
       <c r="I463" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J463" s="3">
         <v>2</v>
@@ -19945,7 +19949,7 @@
       </c>
       <c r="F464" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G464" s="3" t="s">
         <v>11</v>
@@ -19954,7 +19958,7 @@
         <v>266.23</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J464" s="3">
         <v>3</v>
@@ -19987,7 +19991,7 @@
       </c>
       <c r="F465" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G465" s="3" t="s">
         <v>11</v>
@@ -19996,7 +20000,7 @@
         <v>266.23</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J465" s="3">
         <v>4</v>
@@ -20029,7 +20033,7 @@
       </c>
       <c r="F466" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G466" s="3" t="s">
         <v>12</v>
@@ -20038,7 +20042,7 @@
         <v>532.47</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J466" s="3">
         <v>1</v>
@@ -20071,7 +20075,7 @@
       </c>
       <c r="F467" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>12</v>
@@ -20080,7 +20084,7 @@
         <v>532.47</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J467" s="3">
         <v>2</v>
@@ -20113,7 +20117,7 @@
       </c>
       <c r="F468" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G468" s="3" t="s">
         <v>12</v>
@@ -20122,7 +20126,7 @@
         <v>532.47</v>
       </c>
       <c r="I468" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J468" s="3">
         <v>3</v>
@@ -20155,7 +20159,7 @@
       </c>
       <c r="F469" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G469" s="3" t="s">
         <v>12</v>
@@ -20164,7 +20168,7 @@
         <v>532.47</v>
       </c>
       <c r="I469" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J469" s="3">
         <v>4</v>
@@ -20197,7 +20201,7 @@
       </c>
       <c r="F470" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G470" s="3" t="s">
         <v>13</v>
@@ -20206,7 +20210,7 @@
         <v>1064.94</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J470" s="3">
         <v>1</v>
@@ -20239,7 +20243,7 @@
       </c>
       <c r="F471" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G471" s="3" t="s">
         <v>13</v>
@@ -20248,7 +20252,7 @@
         <v>1064.94</v>
       </c>
       <c r="I471" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J471" s="3">
         <v>2</v>
@@ -20281,7 +20285,7 @@
       </c>
       <c r="F472" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G472" s="3" t="s">
         <v>13</v>
@@ -20290,7 +20294,7 @@
         <v>1064.94</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J472" s="3">
         <v>3</v>
@@ -20323,7 +20327,7 @@
       </c>
       <c r="F473" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G473" s="3" t="s">
         <v>13</v>
@@ -20332,7 +20336,7 @@
         <v>1064.94</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J473" s="3">
         <v>4</v>
@@ -20365,7 +20369,7 @@
       </c>
       <c r="F474" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>14</v>
@@ -20374,7 +20378,7 @@
         <v>2129.88</v>
       </c>
       <c r="I474" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J474" s="3">
         <v>1</v>
@@ -20407,7 +20411,7 @@
       </c>
       <c r="F475" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G475" s="3" t="s">
         <v>14</v>
@@ -20416,7 +20420,7 @@
         <v>2129.88</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J475" s="3">
         <v>2</v>
@@ -20449,7 +20453,7 @@
       </c>
       <c r="F476" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G476" s="3" t="s">
         <v>14</v>
@@ -20458,7 +20462,7 @@
         <v>2129.88</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J476" s="3">
         <v>3</v>
@@ -20491,7 +20495,7 @@
       </c>
       <c r="F477" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G477" s="3" t="s">
         <v>14</v>
@@ -20500,7 +20504,7 @@
         <v>2129.88</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J477" s="3">
         <v>4</v>
@@ -20533,7 +20537,7 @@
       </c>
       <c r="F478" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G478" s="3" t="s">
         <v>15</v>
@@ -20542,7 +20546,7 @@
         <v>4259.75</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J478" s="3">
         <v>1</v>
@@ -20575,7 +20579,7 @@
       </c>
       <c r="F479" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G479" s="3" t="s">
         <v>15</v>
@@ -20584,7 +20588,7 @@
         <v>4259.75</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J479" s="3">
         <v>2</v>
@@ -20617,7 +20621,7 @@
       </c>
       <c r="F480" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G480" s="3" t="s">
         <v>15</v>
@@ -20626,7 +20630,7 @@
         <v>4259.75</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J480" s="3">
         <v>3</v>
@@ -20659,7 +20663,7 @@
       </c>
       <c r="F481" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+P450+elevated</v>
+        <v>A101+2,4D+P450+increased</v>
       </c>
       <c r="G481" s="3" t="s">
         <v>15</v>
@@ -20668,7 +20672,7 @@
         <v>4259.75</v>
       </c>
       <c r="I481" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J481" s="3">
         <v>4</v>
@@ -20701,7 +20705,7 @@
       </c>
       <c r="F482" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>9</v>
@@ -20710,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="I482" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J482" s="3">
         <v>1</v>
@@ -20743,7 +20747,7 @@
       </c>
       <c r="F483" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G483" s="3" t="s">
         <v>9</v>
@@ -20752,7 +20756,7 @@
         <v>0</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J483" s="3">
         <v>2</v>
@@ -20785,7 +20789,7 @@
       </c>
       <c r="F484" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G484" s="3" t="s">
         <v>9</v>
@@ -20794,7 +20798,7 @@
         <v>0</v>
       </c>
       <c r="I484" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J484" s="3">
         <v>3</v>
@@ -20827,7 +20831,7 @@
       </c>
       <c r="F485" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G485" s="3" t="s">
         <v>9</v>
@@ -20836,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="I485" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J485" s="3">
         <v>4</v>
@@ -20869,7 +20873,7 @@
       </c>
       <c r="F486" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G486" s="3" t="s">
         <v>20</v>
@@ -20878,7 +20882,7 @@
         <v>16.64</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J486" s="3">
         <v>1</v>
@@ -20911,7 +20915,7 @@
       </c>
       <c r="F487" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>20</v>
@@ -20920,7 +20924,7 @@
         <v>16.64</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J487" s="3">
         <v>2</v>
@@ -20953,7 +20957,7 @@
       </c>
       <c r="F488" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>20</v>
@@ -20962,7 +20966,7 @@
         <v>16.64</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J488" s="3">
         <v>3</v>
@@ -20995,7 +20999,7 @@
       </c>
       <c r="F489" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G489" s="3" t="s">
         <v>20</v>
@@ -21004,7 +21008,7 @@
         <v>16.64</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J489" s="3">
         <v>4</v>
@@ -21037,7 +21041,7 @@
       </c>
       <c r="F490" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G490" s="3" t="s">
         <v>21</v>
@@ -21046,7 +21050,7 @@
         <v>33.28</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J490" s="3">
         <v>1</v>
@@ -21079,7 +21083,7 @@
       </c>
       <c r="F491" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>21</v>
@@ -21088,7 +21092,7 @@
         <v>33.28</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J491" s="3">
         <v>2</v>
@@ -21121,7 +21125,7 @@
       </c>
       <c r="F492" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G492" s="3" t="s">
         <v>21</v>
@@ -21130,7 +21134,7 @@
         <v>33.28</v>
       </c>
       <c r="I492" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J492" s="3">
         <v>3</v>
@@ -21163,7 +21167,7 @@
       </c>
       <c r="F493" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G493" s="3" t="s">
         <v>21</v>
@@ -21172,7 +21176,7 @@
         <v>33.28</v>
       </c>
       <c r="I493" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J493" s="3">
         <v>4</v>
@@ -21205,7 +21209,7 @@
       </c>
       <c r="F494" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>22</v>
@@ -21214,7 +21218,7 @@
         <v>66.56</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J494" s="3">
         <v>1</v>
@@ -21247,7 +21251,7 @@
       </c>
       <c r="F495" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>22</v>
@@ -21256,7 +21260,7 @@
         <v>66.56</v>
       </c>
       <c r="I495" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J495" s="3">
         <v>2</v>
@@ -21289,7 +21293,7 @@
       </c>
       <c r="F496" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G496" s="3" t="s">
         <v>22</v>
@@ -21298,7 +21302,7 @@
         <v>66.56</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J496" s="3">
         <v>3</v>
@@ -21331,7 +21335,7 @@
       </c>
       <c r="F497" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>22</v>
@@ -21340,7 +21344,7 @@
         <v>66.56</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J497" s="3">
         <v>4</v>
@@ -21373,7 +21377,7 @@
       </c>
       <c r="F498" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G498" s="3" t="s">
         <v>10</v>
@@ -21382,7 +21386,7 @@
         <v>133.12</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J498" s="3">
         <v>1</v>
@@ -21415,7 +21419,7 @@
       </c>
       <c r="F499" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>10</v>
@@ -21424,7 +21428,7 @@
         <v>133.12</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J499" s="3">
         <v>2</v>
@@ -21457,7 +21461,7 @@
       </c>
       <c r="F500" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>10</v>
@@ -21466,7 +21470,7 @@
         <v>133.12</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J500" s="3">
         <v>3</v>
@@ -21499,7 +21503,7 @@
       </c>
       <c r="F501" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G501" s="3" t="s">
         <v>10</v>
@@ -21508,7 +21512,7 @@
         <v>133.12</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J501" s="3">
         <v>4</v>
@@ -21541,7 +21545,7 @@
       </c>
       <c r="F502" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G502" s="3" t="s">
         <v>11</v>
@@ -21550,7 +21554,7 @@
         <v>266.23</v>
       </c>
       <c r="I502" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J502" s="3">
         <v>1</v>
@@ -21583,7 +21587,7 @@
       </c>
       <c r="F503" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G503" s="3" t="s">
         <v>11</v>
@@ -21592,7 +21596,7 @@
         <v>266.23</v>
       </c>
       <c r="I503" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J503" s="3">
         <v>2</v>
@@ -21625,7 +21629,7 @@
       </c>
       <c r="F504" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G504" s="3" t="s">
         <v>11</v>
@@ -21634,7 +21638,7 @@
         <v>266.23</v>
       </c>
       <c r="I504" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J504" s="3">
         <v>3</v>
@@ -21667,7 +21671,7 @@
       </c>
       <c r="F505" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G505" s="3" t="s">
         <v>11</v>
@@ -21676,7 +21680,7 @@
         <v>266.23</v>
       </c>
       <c r="I505" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J505" s="3">
         <v>4</v>
@@ -21709,7 +21713,7 @@
       </c>
       <c r="F506" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G506" s="3" t="s">
         <v>12</v>
@@ -21718,7 +21722,7 @@
         <v>532.47</v>
       </c>
       <c r="I506" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J506" s="3">
         <v>1</v>
@@ -21751,7 +21755,7 @@
       </c>
       <c r="F507" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G507" s="3" t="s">
         <v>12</v>
@@ -21760,7 +21764,7 @@
         <v>532.47</v>
       </c>
       <c r="I507" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J507" s="3">
         <v>2</v>
@@ -21793,7 +21797,7 @@
       </c>
       <c r="F508" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>12</v>
@@ -21802,7 +21806,7 @@
         <v>532.47</v>
       </c>
       <c r="I508" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J508" s="3">
         <v>3</v>
@@ -21835,7 +21839,7 @@
       </c>
       <c r="F509" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G509" s="3" t="s">
         <v>12</v>
@@ -21844,7 +21848,7 @@
         <v>532.47</v>
       </c>
       <c r="I509" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J509" s="3">
         <v>4</v>
@@ -21877,7 +21881,7 @@
       </c>
       <c r="F510" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>13</v>
@@ -21886,7 +21890,7 @@
         <v>1064.94</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J510" s="3">
         <v>1</v>
@@ -21919,7 +21923,7 @@
       </c>
       <c r="F511" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G511" s="3" t="s">
         <v>13</v>
@@ -21928,7 +21932,7 @@
         <v>1064.94</v>
       </c>
       <c r="I511" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J511" s="3">
         <v>2</v>
@@ -21961,7 +21965,7 @@
       </c>
       <c r="F512" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G512" s="3" t="s">
         <v>13</v>
@@ -21970,7 +21974,7 @@
         <v>1064.94</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J512" s="3">
         <v>3</v>
@@ -22003,7 +22007,7 @@
       </c>
       <c r="F513" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G513" s="3" t="s">
         <v>13</v>
@@ -22012,7 +22016,7 @@
         <v>1064.94</v>
       </c>
       <c r="I513" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J513" s="3">
         <v>4</v>
@@ -22045,7 +22049,7 @@
       </c>
       <c r="F514" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G514" s="3" t="s">
         <v>14</v>
@@ -22054,7 +22058,7 @@
         <v>2129.88</v>
       </c>
       <c r="I514" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J514" s="3">
         <v>1</v>
@@ -22087,7 +22091,7 @@
       </c>
       <c r="F515" s="3" t="str">
         <f t="shared" ref="F515:F578" si="8">_xlfn.CONCAT(D515,"+",E515,"+",I515)</f>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G515" s="3" t="s">
         <v>14</v>
@@ -22096,7 +22100,7 @@
         <v>2129.88</v>
       </c>
       <c r="I515" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J515" s="3">
         <v>2</v>
@@ -22129,7 +22133,7 @@
       </c>
       <c r="F516" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G516" s="3" t="s">
         <v>14</v>
@@ -22138,7 +22142,7 @@
         <v>2129.88</v>
       </c>
       <c r="I516" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J516" s="3">
         <v>3</v>
@@ -22171,7 +22175,7 @@
       </c>
       <c r="F517" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G517" s="3" t="s">
         <v>14</v>
@@ -22180,7 +22184,7 @@
         <v>2129.88</v>
       </c>
       <c r="I517" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J517" s="3">
         <v>4</v>
@@ -22213,7 +22217,7 @@
       </c>
       <c r="F518" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>15</v>
@@ -22222,7 +22226,7 @@
         <v>4259.75</v>
       </c>
       <c r="I518" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J518" s="3">
         <v>1</v>
@@ -22255,7 +22259,7 @@
       </c>
       <c r="F519" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G519" s="3" t="s">
         <v>15</v>
@@ -22264,7 +22268,7 @@
         <v>4259.75</v>
       </c>
       <c r="I519" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J519" s="3">
         <v>2</v>
@@ -22297,7 +22301,7 @@
       </c>
       <c r="F520" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G520" s="3" t="s">
         <v>15</v>
@@ -22306,7 +22310,7 @@
         <v>4259.75</v>
       </c>
       <c r="I520" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J520" s="3">
         <v>3</v>
@@ -22339,7 +22343,7 @@
       </c>
       <c r="F521" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+2,4D+GST+elevated</v>
+        <v>A101+2,4D+GST+increased</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>15</v>
@@ -22348,7 +22352,7 @@
         <v>4259.75</v>
       </c>
       <c r="I521" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J521" s="3">
         <v>4</v>
@@ -22390,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="I522" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J522" s="3">
         <v>1</v>
@@ -22432,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="I523" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J523" s="3">
         <v>2</v>
@@ -22474,7 +22478,7 @@
         <v>0</v>
       </c>
       <c r="I524" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J524" s="3">
         <v>3</v>
@@ -22516,7 +22520,7 @@
         <v>0</v>
       </c>
       <c r="I525" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J525" s="3">
         <v>4</v>
@@ -22558,7 +22562,7 @@
         <v>16.64</v>
       </c>
       <c r="I526" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J526" s="3">
         <v>1</v>
@@ -22600,7 +22604,7 @@
         <v>16.64</v>
       </c>
       <c r="I527" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J527" s="3">
         <v>2</v>
@@ -22642,7 +22646,7 @@
         <v>16.64</v>
       </c>
       <c r="I528" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J528" s="3">
         <v>3</v>
@@ -22684,7 +22688,7 @@
         <v>16.64</v>
       </c>
       <c r="I529" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J529" s="3">
         <v>4</v>
@@ -22726,7 +22730,7 @@
         <v>33.28</v>
       </c>
       <c r="I530" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J530" s="3">
         <v>1</v>
@@ -22768,7 +22772,7 @@
         <v>33.28</v>
       </c>
       <c r="I531" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J531" s="3">
         <v>2</v>
@@ -22810,7 +22814,7 @@
         <v>33.28</v>
       </c>
       <c r="I532" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J532" s="3">
         <v>3</v>
@@ -22852,7 +22856,7 @@
         <v>33.28</v>
       </c>
       <c r="I533" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J533" s="3">
         <v>4</v>
@@ -22894,7 +22898,7 @@
         <v>66.56</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J534" s="3">
         <v>1</v>
@@ -22936,7 +22940,7 @@
         <v>66.56</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J535" s="3">
         <v>2</v>
@@ -22978,7 +22982,7 @@
         <v>66.56</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J536" s="3">
         <v>3</v>
@@ -23020,7 +23024,7 @@
         <v>66.56</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J537" s="3">
         <v>4</v>
@@ -23062,7 +23066,7 @@
         <v>133.12</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J538" s="3">
         <v>1</v>
@@ -23104,7 +23108,7 @@
         <v>133.12</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J539" s="3">
         <v>2</v>
@@ -23146,7 +23150,7 @@
         <v>133.12</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J540" s="3">
         <v>3</v>
@@ -23188,7 +23192,7 @@
         <v>133.12</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J541" s="3">
         <v>4</v>
@@ -23230,7 +23234,7 @@
         <v>266.23</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J542" s="3">
         <v>1</v>
@@ -23272,7 +23276,7 @@
         <v>266.23</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J543" s="3">
         <v>2</v>
@@ -23314,7 +23318,7 @@
         <v>266.23</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J544" s="3">
         <v>3</v>
@@ -23356,7 +23360,7 @@
         <v>266.23</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J545" s="3">
         <v>4</v>
@@ -23398,7 +23402,7 @@
         <v>532.47</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J546" s="3">
         <v>1</v>
@@ -23440,7 +23444,7 @@
         <v>532.47</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J547" s="3">
         <v>2</v>
@@ -23482,7 +23486,7 @@
         <v>532.47</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J548" s="3">
         <v>3</v>
@@ -23524,7 +23528,7 @@
         <v>532.47</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J549" s="3">
         <v>4</v>
@@ -23566,7 +23570,7 @@
         <v>1064.94</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J550" s="3">
         <v>1</v>
@@ -23608,7 +23612,7 @@
         <v>1064.94</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J551" s="3">
         <v>2</v>
@@ -23650,7 +23654,7 @@
         <v>1064.94</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J552" s="3">
         <v>3</v>
@@ -23692,7 +23696,7 @@
         <v>1064.94</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J553" s="3">
         <v>4</v>
@@ -23734,7 +23738,7 @@
         <v>2129.88</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J554" s="3">
         <v>1</v>
@@ -23776,7 +23780,7 @@
         <v>2129.88</v>
       </c>
       <c r="I555" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J555" s="3">
         <v>2</v>
@@ -23818,7 +23822,7 @@
         <v>2129.88</v>
       </c>
       <c r="I556" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J556" s="3">
         <v>3</v>
@@ -23860,7 +23864,7 @@
         <v>2129.88</v>
       </c>
       <c r="I557" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J557" s="3">
         <v>4</v>
@@ -23902,7 +23906,7 @@
         <v>4259.75</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J558" s="3">
         <v>1</v>
@@ -23944,7 +23948,7 @@
         <v>4259.75</v>
       </c>
       <c r="I559" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J559" s="3">
         <v>2</v>
@@ -23986,7 +23990,7 @@
         <v>4259.75</v>
       </c>
       <c r="I560" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J560" s="3">
         <v>3</v>
@@ -24028,7 +24032,7 @@
         <v>4259.75</v>
       </c>
       <c r="I561" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J561" s="3">
         <v>4</v>
@@ -24070,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="I562" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J562" s="3">
         <v>1</v>
@@ -24112,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J563" s="3">
         <v>2</v>
@@ -24154,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="I564" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J564" s="3">
         <v>3</v>
@@ -24196,7 +24200,7 @@
         <v>0</v>
       </c>
       <c r="I565" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J565" s="3">
         <v>4</v>
@@ -24238,7 +24242,7 @@
         <v>16.64</v>
       </c>
       <c r="I566" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J566" s="3">
         <v>1</v>
@@ -24280,7 +24284,7 @@
         <v>16.64</v>
       </c>
       <c r="I567" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J567" s="3">
         <v>2</v>
@@ -24322,7 +24326,7 @@
         <v>16.64</v>
       </c>
       <c r="I568" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J568" s="3">
         <v>3</v>
@@ -24364,7 +24368,7 @@
         <v>16.64</v>
       </c>
       <c r="I569" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J569" s="3">
         <v>4</v>
@@ -24406,7 +24410,7 @@
         <v>33.28</v>
       </c>
       <c r="I570" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J570" s="3">
         <v>1</v>
@@ -24448,7 +24452,7 @@
         <v>33.28</v>
       </c>
       <c r="I571" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J571" s="3">
         <v>2</v>
@@ -24490,7 +24494,7 @@
         <v>33.28</v>
       </c>
       <c r="I572" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J572" s="3">
         <v>3</v>
@@ -24532,7 +24536,7 @@
         <v>33.28</v>
       </c>
       <c r="I573" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J573" s="3">
         <v>4</v>
@@ -24574,7 +24578,7 @@
         <v>66.56</v>
       </c>
       <c r="I574" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J574" s="3">
         <v>1</v>
@@ -24616,7 +24620,7 @@
         <v>66.56</v>
       </c>
       <c r="I575" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J575" s="3">
         <v>2</v>
@@ -24658,7 +24662,7 @@
         <v>66.56</v>
       </c>
       <c r="I576" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J576" s="3">
         <v>3</v>
@@ -24700,7 +24704,7 @@
         <v>66.56</v>
       </c>
       <c r="I577" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J577" s="3">
         <v>4</v>
@@ -24742,7 +24746,7 @@
         <v>133.12</v>
       </c>
       <c r="I578" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J578" s="3">
         <v>1</v>
@@ -24784,7 +24788,7 @@
         <v>133.12</v>
       </c>
       <c r="I579" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J579" s="3">
         <v>2</v>
@@ -24826,7 +24830,7 @@
         <v>133.12</v>
       </c>
       <c r="I580" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J580" s="3">
         <v>3</v>
@@ -24868,7 +24872,7 @@
         <v>133.12</v>
       </c>
       <c r="I581" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J581" s="3">
         <v>4</v>
@@ -24910,7 +24914,7 @@
         <v>266.23</v>
       </c>
       <c r="I582" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J582" s="3">
         <v>1</v>
@@ -24952,7 +24956,7 @@
         <v>266.23</v>
       </c>
       <c r="I583" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J583" s="3">
         <v>2</v>
@@ -24994,7 +24998,7 @@
         <v>266.23</v>
       </c>
       <c r="I584" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J584" s="3">
         <v>3</v>
@@ -25036,7 +25040,7 @@
         <v>266.23</v>
       </c>
       <c r="I585" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J585" s="3">
         <v>4</v>
@@ -25078,7 +25082,7 @@
         <v>532.47</v>
       </c>
       <c r="I586" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J586" s="3">
         <v>1</v>
@@ -25120,7 +25124,7 @@
         <v>532.47</v>
       </c>
       <c r="I587" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J587" s="3">
         <v>2</v>
@@ -25162,7 +25166,7 @@
         <v>532.47</v>
       </c>
       <c r="I588" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J588" s="3">
         <v>3</v>
@@ -25204,7 +25208,7 @@
         <v>532.47</v>
       </c>
       <c r="I589" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J589" s="3">
         <v>4</v>
@@ -25246,7 +25250,7 @@
         <v>1064.94</v>
       </c>
       <c r="I590" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J590" s="3">
         <v>1</v>
@@ -25288,7 +25292,7 @@
         <v>1064.94</v>
       </c>
       <c r="I591" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J591" s="3">
         <v>2</v>
@@ -25330,7 +25334,7 @@
         <v>1064.94</v>
       </c>
       <c r="I592" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J592" s="3">
         <v>3</v>
@@ -25372,7 +25376,7 @@
         <v>1064.94</v>
       </c>
       <c r="I593" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J593" s="3">
         <v>4</v>
@@ -25414,7 +25418,7 @@
         <v>2129.88</v>
       </c>
       <c r="I594" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J594" s="3">
         <v>1</v>
@@ -25456,7 +25460,7 @@
         <v>2129.88</v>
       </c>
       <c r="I595" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J595" s="3">
         <v>2</v>
@@ -25498,7 +25502,7 @@
         <v>2129.88</v>
       </c>
       <c r="I596" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J596" s="3">
         <v>3</v>
@@ -25540,7 +25544,7 @@
         <v>2129.88</v>
       </c>
       <c r="I597" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J597" s="3">
         <v>4</v>
@@ -25582,7 +25586,7 @@
         <v>4259.75</v>
       </c>
       <c r="I598" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J598" s="3">
         <v>1</v>
@@ -25624,7 +25628,7 @@
         <v>4259.75</v>
       </c>
       <c r="I599" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J599" s="3">
         <v>2</v>
@@ -25666,7 +25670,7 @@
         <v>4259.75</v>
       </c>
       <c r="I600" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J600" s="3">
         <v>3</v>
@@ -25708,7 +25712,7 @@
         <v>4259.75</v>
       </c>
       <c r="I601" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J601" s="3">
         <v>4</v>
@@ -25750,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="I602" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J602" s="3">
         <v>1</v>
@@ -25792,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="I603" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J603" s="3">
         <v>2</v>
@@ -25834,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="I604" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J604" s="3">
         <v>3</v>
@@ -25876,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="I605" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J605" s="3">
         <v>4</v>
@@ -25918,7 +25922,7 @@
         <v>16.64</v>
       </c>
       <c r="I606" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J606" s="3">
         <v>1</v>
@@ -25960,7 +25964,7 @@
         <v>16.64</v>
       </c>
       <c r="I607" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J607" s="3">
         <v>2</v>
@@ -26002,7 +26006,7 @@
         <v>16.64</v>
       </c>
       <c r="I608" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J608" s="3">
         <v>3</v>
@@ -26044,7 +26048,7 @@
         <v>16.64</v>
       </c>
       <c r="I609" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J609" s="3">
         <v>4</v>
@@ -26086,7 +26090,7 @@
         <v>33.28</v>
       </c>
       <c r="I610" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J610" s="3">
         <v>1</v>
@@ -26128,7 +26132,7 @@
         <v>33.28</v>
       </c>
       <c r="I611" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J611" s="3">
         <v>2</v>
@@ -26170,7 +26174,7 @@
         <v>33.28</v>
       </c>
       <c r="I612" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J612" s="3">
         <v>3</v>
@@ -26212,7 +26216,7 @@
         <v>33.28</v>
       </c>
       <c r="I613" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J613" s="3">
         <v>4</v>
@@ -26254,7 +26258,7 @@
         <v>66.56</v>
       </c>
       <c r="I614" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J614" s="3">
         <v>1</v>
@@ -26296,7 +26300,7 @@
         <v>66.56</v>
       </c>
       <c r="I615" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J615" s="3">
         <v>2</v>
@@ -26338,7 +26342,7 @@
         <v>66.56</v>
       </c>
       <c r="I616" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J616" s="3">
         <v>3</v>
@@ -26380,7 +26384,7 @@
         <v>66.56</v>
       </c>
       <c r="I617" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J617" s="3">
         <v>4</v>
@@ -26422,7 +26426,7 @@
         <v>133.12</v>
       </c>
       <c r="I618" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J618" s="3">
         <v>1</v>
@@ -26464,7 +26468,7 @@
         <v>133.12</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J619" s="3">
         <v>2</v>
@@ -26506,7 +26510,7 @@
         <v>133.12</v>
       </c>
       <c r="I620" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J620" s="3">
         <v>3</v>
@@ -26548,7 +26552,7 @@
         <v>133.12</v>
       </c>
       <c r="I621" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J621" s="3">
         <v>4</v>
@@ -26590,7 +26594,7 @@
         <v>266.23</v>
       </c>
       <c r="I622" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J622" s="3">
         <v>1</v>
@@ -26632,7 +26636,7 @@
         <v>266.23</v>
       </c>
       <c r="I623" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J623" s="3">
         <v>2</v>
@@ -26674,7 +26678,7 @@
         <v>266.23</v>
       </c>
       <c r="I624" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J624" s="3">
         <v>3</v>
@@ -26716,7 +26720,7 @@
         <v>266.23</v>
       </c>
       <c r="I625" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J625" s="3">
         <v>4</v>
@@ -26758,7 +26762,7 @@
         <v>532.47</v>
       </c>
       <c r="I626" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J626" s="3">
         <v>1</v>
@@ -26800,7 +26804,7 @@
         <v>532.47</v>
       </c>
       <c r="I627" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J627" s="3">
         <v>2</v>
@@ -26842,7 +26846,7 @@
         <v>532.47</v>
       </c>
       <c r="I628" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J628" s="3">
         <v>3</v>
@@ -26884,7 +26888,7 @@
         <v>532.47</v>
       </c>
       <c r="I629" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J629" s="3">
         <v>4</v>
@@ -26926,7 +26930,7 @@
         <v>1064.94</v>
       </c>
       <c r="I630" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J630" s="3">
         <v>1</v>
@@ -26968,7 +26972,7 @@
         <v>1064.94</v>
       </c>
       <c r="I631" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J631" s="3">
         <v>2</v>
@@ -27010,7 +27014,7 @@
         <v>1064.94</v>
       </c>
       <c r="I632" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J632" s="3">
         <v>3</v>
@@ -27052,7 +27056,7 @@
         <v>1064.94</v>
       </c>
       <c r="I633" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J633" s="3">
         <v>4</v>
@@ -27094,7 +27098,7 @@
         <v>2129.88</v>
       </c>
       <c r="I634" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J634" s="3">
         <v>1</v>
@@ -27136,7 +27140,7 @@
         <v>2129.88</v>
       </c>
       <c r="I635" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J635" s="3">
         <v>2</v>
@@ -27178,7 +27182,7 @@
         <v>2129.88</v>
       </c>
       <c r="I636" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J636" s="3">
         <v>3</v>
@@ -27220,7 +27224,7 @@
         <v>2129.88</v>
       </c>
       <c r="I637" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J637" s="3">
         <v>4</v>
@@ -27262,7 +27266,7 @@
         <v>4259.75</v>
       </c>
       <c r="I638" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J638" s="3">
         <v>1</v>
@@ -27304,7 +27308,7 @@
         <v>4259.75</v>
       </c>
       <c r="I639" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J639" s="3">
         <v>2</v>
@@ -27346,7 +27350,7 @@
         <v>4259.75</v>
       </c>
       <c r="I640" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J640" s="3">
         <v>3</v>
@@ -27388,7 +27392,7 @@
         <v>4259.75</v>
       </c>
       <c r="I641" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J641" s="3">
         <v>4</v>
